--- a/xlsx/瑞典_intext.xlsx
+++ b/xlsx/瑞典_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1042">
   <si>
     <t>瑞典</t>
   </si>
@@ -29,7 +29,7 @@
     <t>瑞典国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_瑞典</t>
+    <t>政策_政策_美国_瑞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%9B%BD%E5%BE%BD</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E</t>
   </si>
   <si>
-    <t>瑞典語</t>
+    <t>瑞典语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%A4%E9%A0%8C%E6%AD%8C</t>
   </si>
   <si>
-    <t>皇室頌歌</t>
+    <t>皇室颂歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -83,9 +83,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AF%AD</t>
   </si>
   <si>
-    <t>瑞典语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
   </si>
   <si>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>瑞典議會</t>
+    <t>瑞典议会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Urban_Ahlin</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>日光節約時間</t>
+    <t>日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%B8%AD%E9%83%A8%E5%A4%8F%E4%BB%A4%E6%97%B6%E9%97%B4</t>
@@ -371,13 +368,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A0%AA%E5%9C%B0%E7%B4%8D%E7%B6%AD%E4%BA%9E%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>斯堪地納維亞半島</t>
+    <t>斯堪地纳维亚半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%9A%84%E5%B0%BC%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>波的尼亞灣</t>
+    <t>波的尼亚湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%8B%92%E6%B5%B7%E5%B3%BD%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>厄勒海峽大橋</t>
+    <t>厄勒海峡大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>運輸</t>
+    <t>运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E4%BF%A1</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
   </si>
   <si>
-    <t>工業化</t>
+    <t>工业化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%BA%A7%E4%B8%9A</t>
@@ -575,19 +572,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E9%A6%AC%E8%81%AF%E5%90%88</t>
   </si>
   <si>
-    <t>卡爾馬聯合</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E4%BF%84</t>
@@ -599,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5-%E6%8C%AA%E5%A8%81</t>
   </si>
   <si>
-    <t>丹麥-挪威</t>
+    <t>丹麦-挪威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>瑞典帝國</t>
+    <t>瑞典帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9D%83</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%96%8B%E7%99%BC%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國開發計劃署</t>
+    <t>联合国开发计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%A6</t>
@@ -641,13 +635,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>冰河時期</t>
+    <t>冰河时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%99%A8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>石器時代</t>
+    <t>石器时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%93%9C%E5%99%A8%E6%97%B6%E4%BB%A3</t>
@@ -659,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E4%BA%BA</t>
   </si>
   <si>
-    <t>維京人</t>
+    <t>维京人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E4%B9%89</t>
@@ -683,31 +677,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>三十年戰爭</t>
+    <t>三十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8C%97%E6%96%B9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>大北方戰爭</t>
+    <t>大北方战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄羅斯帝國</t>
+    <t>俄罗斯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>大公國</t>
+    <t>大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E8%A8%A5</t>
   </si>
   <si>
-    <t>斯科訥</t>
+    <t>斯科讷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8-%E6%8C%AA%E5%A8%81%E8%81%94%E5%90%88</t>
@@ -749,13 +743,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾獎</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>瑞典國王</t>
+    <t>瑞典国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E4%BA%BA%E5%B1%85%E4%BD%8F%E5%8C%BA</t>
@@ -785,25 +776,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%9F%8B%E9%98%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>斯韋阿蘭</t>
+    <t>斯韦阿兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E5%A1%94%E8%98%AD</t>
   </si>
   <si>
-    <t>約塔蘭</t>
+    <t>约塔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%8E%AB%E8%98%AD</t>
   </si>
   <si>
-    <t>斯莫蘭</t>
+    <t>斯莫兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E5%9C%88</t>
   </si>
   <si>
-    <t>北極圈</t>
+    <t>北极圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%BE%97%E5%85%B0%E5%B2%9B</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>島嶼</t>
+    <t>岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E7%BA%B3%E6%81%A9%E6%B9%96</t>
@@ -833,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E7%89%B9%E6%81%A9%E6%B9%96</t>
   </si>
   <si>
-    <t>韋特恩湖</t>
+    <t>韦特恩湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%8B%89%E4%BC%A6%E6%B9%96</t>
@@ -875,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%9A%96%E6%B5%81</t>
   </si>
   <si>
-    <t>墨西哥灣暖流</t>
+    <t>墨西哥湾暖流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%A6%E6%A0%91</t>
@@ -893,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E6%9D%89</t>
   </si>
   <si>
-    <t>雲杉</t>
+    <t>云杉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -1001,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%96%AF%E6%AF%94</t>
   </si>
   <si>
-    <t>維斯比</t>
+    <t>维斯比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E9%87%91%E5%8E%84%E7%9C%81</t>
   </si>
   <si>
-    <t>布萊金厄省</t>
+    <t>布莱金厄省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%96%AF%E5%85%8B%E9%B2%81%E7%BA%B3</t>
@@ -1121,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%A8%A5%E6%A1%91%E5%BE%B7</t>
   </si>
   <si>
-    <t>海訥桑德</t>
+    <t>海讷桑德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%A7%86%E7%89%B9%E5%85%B0%E7%9C%81</t>
@@ -1157,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E5%8B%92%E5%A5%A7</t>
   </si>
   <si>
-    <t>呂勒奧</t>
+    <t>吕勒奥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1229,27 +1220,15 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>芬蘭語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%B1%B3%E8%AA%9E</t>
   </si>
   <si>
-    <t>薩米語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%A7%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅姆語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E7%AC%AC%E7%B7%92%E8%AA%9E</t>
   </si>
   <si>
-    <t>意第緒語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
   </si>
   <si>
@@ -1271,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B4%9A%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>高級中學</t>
+    <t>高级中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
@@ -1301,21 +1280,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>瑞典國會</t>
+    <t>瑞典国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E5%8D%81%E5%85%AD%E4%B8%96%C2%B7%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB</t>
   </si>
   <si>
-    <t>卡爾十六世·古斯塔夫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
@@ -1325,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>瑞典國防軍</t>
+    <t>瑞典国防军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%9B%BD%E9%98%B2%E9%83%A8</t>
@@ -1343,19 +1316,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>瑞典陸軍</t>
+    <t>瑞典陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>瑞典海軍</t>
+    <t>瑞典海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>瑞典空軍</t>
+    <t>瑞典空军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Micael_Byd%C3%A9n</t>
@@ -1385,13 +1358,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E9%84%89%E5%9C%9F%E9%98%B2%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>瑞典鄉土防衛隊</t>
+    <t>瑞典乡土防卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
@@ -1403,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%B6%AD%E9%82%A3</t>
   </si>
   <si>
-    <t>波斯尼亞和黑塞哥維那</t>
+    <t>波斯尼亚和黑塞哥维那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
@@ -1427,19 +1400,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%92%8C%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>維和部隊</t>
+    <t>维和部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>瑞典經濟</t>
+    <t>瑞典经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IKEA</t>
@@ -1451,25 +1424,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
+    <t>欧元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>產業</t>
+    <t>产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81</t>
@@ -1499,13 +1472,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7</t>
   </si>
   <si>
-    <t>環境保護</t>
+    <t>环境保护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學</t>
+    <t>化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF</t>
@@ -1535,7 +1508,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%90%91%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -1547,13 +1520,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>都市日報</t>
+    <t>都市日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E6%B2%83%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>沃爾沃汽車</t>
+    <t>沃尔沃汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A0%AA%E5%B0%BC%E4%BA%9A%E6%B1%BD%E8%BD%A6</t>
@@ -1565,13 +1538,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8D%9A%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>薩博汽車</t>
+    <t>萨博汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%AB%8B%E4%BF%A1</t>
   </si>
   <si>
-    <t>愛立信</t>
+    <t>爱立信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Spotify</t>
@@ -1583,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%90%8A%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>伊萊克斯</t>
+    <t>伊莱克斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABB</t>
@@ -1595,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%A8%82%E5%8C%85%E8%A3%9D</t>
   </si>
   <si>
-    <t>利樂包裝</t>
+    <t>利乐包装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8B%8F</t>
@@ -1619,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%88%A9%E5%BA%B7%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>阿斯利康製藥</t>
+    <t>阿斯利康制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SKF</t>
@@ -1637,13 +1610,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%AF%8C_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>財富 (雜誌)</t>
+    <t>财富 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>機場</t>
+    <t>机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E9%81%93</t>
@@ -1655,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E9%90%B5%E8%B7%AF%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>瑞典鐵路運輸</t>
+    <t>瑞典铁路运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%B7%AF</t>
@@ -1685,9 +1658,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>资本主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%BB%8F%E6%B5%8E</t>
   </si>
   <si>
@@ -1745,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%BE%A9%E5%AE%97</t>
   </si>
   <si>
-    <t>信義宗</t>
+    <t>信义宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E6%95%99</t>
@@ -1763,13 +1733,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E4%BF%A1%E7%BE%A9%E6%9C%83</t>
   </si>
   <si>
-    <t>瑞典信義會</t>
+    <t>瑞典信义会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A3%E6%95%99</t>
   </si>
   <si>
-    <t>東正教</t>
+    <t>东正教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
@@ -1793,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E6%96%AF%C2%B7%E6%94%9D%E7%88%BE%E4%BF%AE%E6%96%AF</t>
   </si>
   <si>
-    <t>安德斯·攝爾修斯</t>
+    <t>安德斯·摄尔修斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%9E%97%E5%A5%88</t>
@@ -1835,13 +1805,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%AF%A7%C2%B7%E6%9B%BC%E5%87%B1%E7%88%BE</t>
   </si>
   <si>
-    <t>賀寧·曼凱爾</t>
+    <t>贺宁·曼凯尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E7%B4%90%C2%B7%E6%96%AF%E5%A8%81%E7%99%BB%E5%A0%A1</t>
   </si>
   <si>
-    <t>伊曼紐·斯威登堡</t>
+    <t>伊曼纽·斯威登堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E7%89%B9%C2%B7%E6%96%AF%E7%89%B9%E6%9E%97%E5%A0%A1</t>
@@ -1859,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7%E9%A6%AC%E4%B8%81%E9%81%9C</t>
   </si>
   <si>
-    <t>哈里·馬丁遜</t>
+    <t>哈里·马丁逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E7%89%B9%E4%B8%BD%E5%BE%B7%C2%B7%E6%9E%97%E6%A0%BC%E4%BC%A6</t>
@@ -1871,7 +1841,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E6%8B%89%E6%A3%AE</t>
   </si>
   <si>
-    <t>卡爾·拉森</t>
+    <t>卡尔·拉森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1</t>
@@ -1907,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E9%BA%97%E6%B3%B0%C2%B7%E5%98%89%E5%AF%B6</t>
   </si>
   <si>
-    <t>葛麗泰·嘉寶</t>
+    <t>葛丽泰·嘉宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E4%B8%BD%C2%B7%E8%A4%92%E6%9B%BC</t>
@@ -1943,13 +1913,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B2%E5%A4%8F%E7%AF%80</t>
   </si>
   <si>
-    <t>仲夏節</t>
+    <t>仲夏节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80</t>
   </si>
   <si>
-    <t>五旬節</t>
+    <t>五旬节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E8%8A%82</t>
@@ -1961,13 +1931,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF</t>
   </si>
   <si>
-    <t>聖露西</t>
+    <t>圣露西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%9C%8B%E6%85%B6%E6%97%A5</t>
   </si>
   <si>
-    <t>瑞典國慶日</t>
+    <t>瑞典国庆日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BD%E5%90%8D%E6%97%A5</t>
@@ -1979,7 +1949,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>瑞典飲食文化</t>
+    <t>瑞典饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B1%BC</t>
@@ -1991,13 +1961,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%89%E9%A1%9E</t>
   </si>
   <si>
-    <t>肉類</t>
+    <t>肉类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%88%B4%E8%96%AF</t>
   </si>
   <si>
-    <t>馬鈴薯</t>
+    <t>马铃薯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%82%89%E4%B8%B8</t>
@@ -2009,13 +1979,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BC%E6%BC%AC%E9%AD%9A</t>
   </si>
   <si>
-    <t>鹼漬魚</t>
+    <t>碱渍鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E9%B9%BD%E9%86%83%E9%AF%A1%E9%AD%9A</t>
   </si>
   <si>
-    <t>瑞典鹽醃鯡魚</t>
+    <t>瑞典盐醃鲱鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Julmust</t>
@@ -2027,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>瑞典體育</t>
+    <t>瑞典体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
@@ -2045,7 +2015,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E6%A0%BC%E5%A0%A1</t>
   </si>
   <si>
-    <t>龍格堡</t>
+    <t>龙格堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E8%87%A3</t>
@@ -2063,19 +2033,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%B7%B4%E8%AC%99%E8%8E%AB%E5%9F%9F</t>
   </si>
   <si>
-    <t>伊巴謙莫域</t>
+    <t>伊巴谦莫域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%A1%93</t>
   </si>
   <si>
-    <t>馬術</t>
+    <t>马术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%88%BE%E5%A4%AB%E7%90%83</t>
   </si>
   <si>
-    <t>高爾夫球</t>
+    <t>高尔夫球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%BE%84</t>
@@ -2117,7 +2087,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83</t>
   </si>
   <si>
-    <t>網球</t>
+    <t>网球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%BA%A6%E6%81%A9%C2%B7%E5%8D%9A%E6%A0%BC</t>
@@ -2171,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E9%A0%85%E5%85%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>七項全能</t>
+    <t>七项全能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BD%97%E4%B8%BD%E5%A8%9C%C2%B7%E5%85%8B%E9%B2%81%E5%BC%97%E7%89%B9</t>
@@ -2213,7 +2183,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A6%AE%E5%8D%A1%C2%B7%E7%B4%A2%E5%80%AB%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>安妮卡·索倫斯坦</t>
+    <t>安妮卡·索伦斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%92%E4%B9%93%E7%90%83</t>
@@ -2231,7 +2201,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E8%BB%8A</t>
   </si>
   <si>
-    <t>摩托車</t>
+    <t>摩托车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1912%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
@@ -2243,7 +2213,7 @@
     <t>https://zh.wikipedia.org/wiki/1958%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1958年世界盃足球賽</t>
+    <t>1958年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1992%E5%B9%B4%E6%AC%A7%E6%B4%B2%E8%B6%B3%E7%90%83%E9%94%A6%E6%A0%87%E8%B5%9B</t>
@@ -2261,13 +2231,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E5%90%91%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>定向運動</t>
+    <t>定向运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E8%96%A9%E7%B1%B3%E8%AA%9E</t>
   </si>
   <si>
-    <t>北方薩米語</t>
+    <t>北方萨米语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Nationalencyklopedin</t>
@@ -2303,15 +2273,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%8B%92%E6%B5%B7%E5%B3%A1</t>
   </si>
   <si>
@@ -2321,21 +2288,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7</t>
   </si>
   <si>
-    <t>波羅的海</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Europe</t>
   </si>
   <si>
@@ -2393,9 +2351,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
   </si>
   <si>
-    <t>北欧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
   </si>
   <si>
@@ -2453,7 +2408,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -2483,25 +2438,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
   </si>
   <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -2513,13 +2465,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -2531,13 +2483,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -2555,25 +2507,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
-    <t>聖座</t>
+    <t>圣座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -2603,7 +2555,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -2621,19 +2573,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>揚馬延島</t>
+    <t>扬马延岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
@@ -2651,7 +2603,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
@@ -2699,7 +2651,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -2723,21 +2675,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
   </si>
   <si>
@@ -2747,27 +2690,21 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>北歐理事會</t>
+    <t>北欧理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2777,19 +2714,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BE%85%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>法羅群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
   </si>
   <si>
-    <t>格陵蘭</t>
+    <t>格陵兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>地中海聯盟</t>
+    <t>地中海联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -2807,7 +2741,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
@@ -2873,7 +2807,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
   </si>
   <si>
-    <t>盧森堡市</t>
+    <t>卢森堡市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
@@ -2897,7 +2831,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%83%BD%E8%8C%B2</t>
   </si>
   <si>
-    <t>瓦都茲</t>
+    <t>瓦都兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9</t>
@@ -2921,7 +2855,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E9%9B%85%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>雷克雅維克</t>
+    <t>雷克雅维克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BE%B7%E9%87%8C</t>
@@ -2969,13 +2903,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
   </si>
   <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8A%9B%E8%AB%BE_(%E5%9F%8E%E5%B8%82)</t>
   </si>
   <si>
-    <t>聖馬力諾 (城市)</t>
+    <t>圣马力诺 (城市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
@@ -2999,7 +2930,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%85%B1%E5%92%8C%E5%9C%8B_(2017%E5%B9%B4)</t>
   </si>
   <si>
-    <t>加泰隆尼亞共和國 (2017年)</t>
+    <t>加泰隆尼亚共和国 (2017年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%BD%97%E9%82%A3</t>
@@ -3089,7 +3020,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%8F%B2%E4%BA%9E</t>
   </si>
   <si>
-    <t>索菲亞</t>
+    <t>索菲亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BE%B7%E6%88%88%E9%87%8C%E5%AF%9F</t>
@@ -3101,7 +3032,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E4%BB%80%E8%92%82%E7%B4%8D</t>
   </si>
   <si>
-    <t>普里什蒂納</t>
+    <t>普里什蒂纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E8%80%B6%E4%BD%9B</t>
@@ -3155,7 +3086,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3173,7 +3104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3191,7 +3122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3203,13 +3134,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3870,7 +3801,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
         <v>8</v>
@@ -3896,10 +3827,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -3925,10 +3856,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>11</v>
@@ -3954,10 +3885,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -3983,10 +3914,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -4012,10 +3943,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -4041,10 +3972,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -4070,10 +4001,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -4099,10 +4030,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -4128,10 +4059,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -4157,10 +4088,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -4186,10 +4117,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -4215,10 +4146,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -4244,10 +4175,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -4273,10 +4204,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
         <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -4302,10 +4233,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -4331,10 +4262,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -4360,10 +4291,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -4389,10 +4320,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -4418,10 +4349,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -4447,10 +4378,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>29</v>
@@ -4476,10 +4407,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -4505,10 +4436,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -4534,10 +4465,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -4563,10 +4494,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -4592,10 +4523,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -4621,10 +4552,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -4650,10 +4581,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -4679,10 +4610,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -4708,10 +4639,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -4737,10 +4668,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4766,10 +4697,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -4795,10 +4726,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -4824,10 +4755,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4853,10 +4784,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4882,10 +4813,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4911,10 +4842,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -4940,10 +4871,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4969,10 +4900,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4998,10 +4929,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -5027,10 +4958,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -5056,10 +4987,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>13</v>
@@ -5085,10 +5016,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -5114,10 +5045,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -5143,10 +5074,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -5172,10 +5103,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -5201,10 +5132,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5230,10 +5161,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -5259,10 +5190,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5288,10 +5219,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5317,10 +5248,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -5346,10 +5277,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -5375,10 +5306,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>20</v>
@@ -5404,10 +5335,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>11</v>
@@ -5433,10 +5364,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5462,10 +5393,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5491,10 +5422,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>7</v>
@@ -5520,10 +5451,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -5549,10 +5480,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>10</v>
@@ -5578,10 +5509,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -5607,10 +5538,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -5636,10 +5567,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>6</v>
@@ -5665,10 +5596,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>6</v>
@@ -5694,10 +5625,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>6</v>
@@ -5723,10 +5654,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>6</v>
@@ -5752,10 +5683,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5781,10 +5712,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -5810,10 +5741,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -5839,10 +5770,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>9</v>
@@ -5868,10 +5799,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -5897,10 +5828,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5926,10 +5857,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5955,10 +5886,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5984,10 +5915,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -6013,10 +5944,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -6042,10 +5973,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -6071,10 +6002,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6100,10 +6031,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6129,10 +6060,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6158,10 +6089,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6187,10 +6118,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -6216,10 +6147,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6245,10 +6176,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -6274,10 +6205,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6303,10 +6234,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -6332,10 +6263,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>5</v>
@@ -6361,10 +6292,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -6390,10 +6321,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6419,10 +6350,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6448,10 +6379,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6477,10 +6408,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6506,10 +6437,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6535,10 +6466,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6564,10 +6495,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" t="s">
         <v>49</v>
-      </c>
-      <c r="F104" t="s">
-        <v>50</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6593,10 +6524,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6622,10 +6553,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6651,10 +6582,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6680,10 +6611,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6709,10 +6640,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6738,10 +6669,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6767,10 +6698,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6796,10 +6727,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6825,10 +6756,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6854,10 +6785,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6883,10 +6814,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -6912,10 +6843,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6941,10 +6872,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -6970,10 +6901,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6999,10 +6930,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -7028,10 +6959,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7057,10 +6988,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7086,10 +7017,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7144,10 +7075,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7173,10 +7104,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7202,10 +7133,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -7231,10 +7162,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>54</v>
+      </c>
+      <c r="F127" t="s">
         <v>55</v>
-      </c>
-      <c r="F127" t="s">
-        <v>56</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -7260,10 +7191,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7289,10 +7220,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -7318,10 +7249,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>132</v>
+      </c>
+      <c r="F130" t="s">
         <v>133</v>
-      </c>
-      <c r="F130" t="s">
-        <v>134</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7347,10 +7278,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7376,10 +7307,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7405,10 +7336,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7434,10 +7365,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7463,10 +7394,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7492,10 +7423,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7521,10 +7452,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7550,10 +7481,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7579,10 +7510,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7608,10 +7539,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7637,10 +7568,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7666,10 +7597,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7695,10 +7626,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7724,10 +7655,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7753,10 +7684,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7782,10 +7713,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7811,10 +7742,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7840,10 +7771,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7869,10 +7800,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7898,10 +7829,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F150" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7927,10 +7858,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7956,10 +7887,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7985,10 +7916,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8014,10 +7945,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8043,10 +7974,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8072,10 +8003,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8101,10 +8032,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8130,10 +8061,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8159,10 +8090,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -8188,10 +8119,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8217,10 +8148,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8246,10 +8177,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8275,10 +8206,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8304,10 +8235,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8333,10 +8264,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -8362,10 +8293,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8391,10 +8322,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8420,10 +8351,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8449,10 +8380,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>5</v>
@@ -8478,10 +8409,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8507,10 +8438,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8536,10 +8467,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8565,10 +8496,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8594,10 +8525,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8623,10 +8554,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -8652,10 +8583,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8681,10 +8612,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8710,10 +8641,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8739,10 +8670,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -8768,10 +8699,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8797,10 +8728,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8826,10 +8757,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8855,10 +8786,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8884,10 +8815,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8913,10 +8844,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8942,10 +8873,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8971,10 +8902,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9000,10 +8931,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9029,10 +8960,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -9058,10 +8989,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9087,10 +9018,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9116,10 +9047,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9145,10 +9076,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -9174,10 +9105,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9203,10 +9134,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9232,10 +9163,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9261,10 +9192,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9290,10 +9221,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>58</v>
+      </c>
+      <c r="F198" t="s">
         <v>59</v>
-      </c>
-      <c r="F198" t="s">
-        <v>60</v>
       </c>
       <c r="G198" t="n">
         <v>7</v>
@@ -9319,10 +9250,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G199" t="n">
         <v>4</v>
@@ -9348,10 +9279,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9377,10 +9308,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9406,10 +9337,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9435,10 +9366,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F203" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -9464,10 +9395,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9493,10 +9424,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -9522,10 +9453,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9551,10 +9482,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9580,10 +9511,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9609,10 +9540,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9638,10 +9569,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9667,10 +9598,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>103</v>
       </c>
       <c r="G211" t="n">
         <v>5</v>
@@ -9696,10 +9627,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>104</v>
+      </c>
+      <c r="F212" t="s">
         <v>105</v>
-      </c>
-      <c r="F212" t="s">
-        <v>106</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9725,10 +9656,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>109</v>
       </c>
       <c r="G213" t="n">
         <v>4</v>
@@ -9754,10 +9685,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9783,10 +9714,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>111</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -9812,10 +9743,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9841,10 +9772,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G217" t="n">
         <v>12</v>
@@ -9870,10 +9801,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9899,10 +9830,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -9928,10 +9859,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9957,10 +9888,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9986,10 +9917,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10015,10 +9946,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10044,10 +9975,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -10073,10 +10004,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>31</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10102,10 +10033,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>35</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10131,10 +10062,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -10160,10 +10091,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10189,10 +10120,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G229" t="n">
         <v>4</v>
@@ -10218,10 +10149,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10247,10 +10178,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F231" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -10276,10 +10207,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10305,10 +10236,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -10334,10 +10265,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10363,10 +10294,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10392,10 +10323,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10421,10 +10352,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10450,10 +10381,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10479,10 +10410,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10508,10 +10439,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10537,10 +10468,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10566,10 +10497,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10595,10 +10526,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G243" t="n">
         <v>3</v>
@@ -10624,10 +10555,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -10653,10 +10584,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10682,10 +10613,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10711,10 +10642,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -10740,10 +10671,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10769,10 +10700,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10798,10 +10729,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10827,10 +10758,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10856,10 +10787,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -10885,10 +10816,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -10914,10 +10845,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10943,10 +10874,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10972,10 +10903,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11001,10 +10932,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -11030,10 +10961,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11059,10 +10990,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11088,10 +11019,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G260" t="n">
         <v>5</v>
@@ -11117,10 +11048,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11146,10 +11077,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -11175,10 +11106,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F263" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -11204,10 +11135,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F264" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11233,10 +11164,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F265" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G265" t="n">
         <v>4</v>
@@ -11262,10 +11193,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11291,10 +11222,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F267" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11320,10 +11251,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F268" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11349,10 +11280,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F269" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11378,10 +11309,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F270" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11407,10 +11338,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F271" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11436,10 +11367,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11465,10 +11396,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11494,10 +11425,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11523,10 +11454,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F275" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11552,10 +11483,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F276" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11581,10 +11512,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F277" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11610,10 +11541,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F278" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11639,10 +11570,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11668,10 +11599,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11697,10 +11628,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F281" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11726,10 +11657,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F282" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11755,10 +11686,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F283" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11784,10 +11715,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F284" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G284" t="n">
         <v>7</v>
@@ -11813,10 +11744,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F285" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11842,10 +11773,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F286" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11871,10 +11802,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F287" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11900,10 +11831,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F288" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G288" t="n">
         <v>4</v>
@@ -11929,10 +11860,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F289" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11958,10 +11889,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F290" t="s">
-        <v>556</v>
+        <v>471</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11987,10 +11918,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12016,10 +11947,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F292" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12045,10 +11976,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G293" t="n">
         <v>3</v>
@@ -12074,10 +12005,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12103,10 +12034,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F295" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12132,10 +12063,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F296" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12161,10 +12092,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F297" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12190,10 +12121,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F298" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="G298" t="n">
         <v>3</v>
@@ -12219,10 +12150,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F299" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12248,10 +12179,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F300" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12277,10 +12208,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F301" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12306,10 +12237,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F302" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12335,10 +12266,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F303" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G303" t="n">
         <v>4</v>
@@ -12364,10 +12295,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F304" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12393,10 +12324,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F305" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G305" t="n">
         <v>6</v>
@@ -12422,10 +12353,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F306" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -12451,10 +12382,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F307" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12480,10 +12411,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F308" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12509,10 +12440,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F309" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12538,10 +12469,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F310" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12567,10 +12498,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F311" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12596,10 +12527,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F312" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12625,10 +12556,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F313" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12654,10 +12585,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F314" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12683,10 +12614,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F315" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12712,10 +12643,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F316" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12741,10 +12672,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F317" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12770,10 +12701,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F318" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12799,10 +12730,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F319" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12828,10 +12759,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F320" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12857,10 +12788,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F321" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12886,10 +12817,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F322" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12915,10 +12846,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12944,10 +12875,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F324" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12973,10 +12904,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F325" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13002,10 +12933,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F326" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13031,10 +12962,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F327" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13060,10 +12991,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F328" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13089,10 +13020,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F329" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13118,10 +13049,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F330" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13147,10 +13078,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F331" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13176,10 +13107,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F332" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13205,10 +13136,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F333" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13234,10 +13165,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F334" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13263,10 +13194,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13292,10 +13223,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13321,10 +13252,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F337" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13350,10 +13281,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F338" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G338" t="n">
         <v>3</v>
@@ -13379,10 +13310,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F339" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13408,10 +13339,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F340" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -13437,10 +13368,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F341" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -13466,10 +13397,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F342" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13495,10 +13426,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F343" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13524,10 +13455,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F344" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13553,10 +13484,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F345" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13582,10 +13513,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F346" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13611,10 +13542,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F347" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13640,10 +13571,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F348" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="G348" t="n">
         <v>6</v>
@@ -13669,10 +13600,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F349" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13698,10 +13629,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F350" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13727,10 +13658,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F351" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13756,10 +13687,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F352" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13785,10 +13716,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13814,10 +13745,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13843,10 +13774,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F355" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13872,10 +13803,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F356" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G356" t="n">
         <v>3</v>
@@ -13901,10 +13832,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F357" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13930,10 +13861,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F358" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13959,10 +13890,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F359" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13988,10 +13919,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F360" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14017,10 +13948,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F361" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14046,10 +13977,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F362" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14075,10 +14006,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F363" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14104,10 +14035,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F364" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14133,10 +14064,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F365" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14162,10 +14093,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F366" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G366" t="n">
         <v>5</v>
@@ -14191,10 +14122,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F367" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14220,10 +14151,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F368" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14249,10 +14180,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F369" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14278,10 +14209,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F370" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14307,10 +14238,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F371" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14336,10 +14267,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F372" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14365,10 +14296,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F373" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14394,10 +14325,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F374" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14423,10 +14354,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F375" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14452,10 +14383,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F376" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14481,10 +14412,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F377" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14510,10 +14441,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F378" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14539,10 +14470,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F379" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14568,10 +14499,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F380" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14597,10 +14528,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F381" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14626,10 +14557,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F382" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14655,10 +14586,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F383" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14684,10 +14615,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F384" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14713,10 +14644,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F385" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14742,10 +14673,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F386" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14771,10 +14702,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="F387" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14800,10 +14731,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F388" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14829,10 +14760,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F389" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14858,10 +14789,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F390" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14887,10 +14818,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F391" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G391" t="n">
         <v>10</v>
@@ -14916,10 +14847,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F392" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14945,10 +14876,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F393" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14974,10 +14905,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
+        <v>128</v>
+      </c>
+      <c r="F394" t="s">
         <v>129</v>
-      </c>
-      <c r="F394" t="s">
-        <v>130</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15003,10 +14934,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F395" t="s">
-        <v>764</v>
+        <v>135</v>
       </c>
       <c r="G395" t="n">
         <v>7</v>
@@ -15032,10 +14963,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="F396" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -15061,10 +14992,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F397" t="s">
-        <v>768</v>
+        <v>131</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -15090,10 +15021,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="F398" t="s">
-        <v>770</v>
+        <v>137</v>
       </c>
       <c r="G398" t="n">
         <v>3</v>
@@ -15119,10 +15050,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="F399" t="s">
-        <v>772</v>
+        <v>139</v>
       </c>
       <c r="G399" t="n">
         <v>3</v>
@@ -15148,10 +15079,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="F400" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="G400" t="n">
         <v>6</v>
@@ -15177,10 +15108,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="F401" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -15206,10 +15137,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="F402" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="G402" t="n">
         <v>4</v>
@@ -15235,10 +15166,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="F403" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="G403" t="n">
         <v>3</v>
@@ -15264,10 +15195,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="F404" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -15293,10 +15224,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="F405" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="G405" t="n">
         <v>3</v>
@@ -15322,10 +15253,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="F406" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15351,10 +15282,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="F407" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -15380,10 +15311,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="F408" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="G408" t="n">
         <v>4</v>
@@ -15409,10 +15340,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="F409" t="s">
-        <v>792</v>
+        <v>119</v>
       </c>
       <c r="G409" t="n">
         <v>7</v>
@@ -15438,10 +15369,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="F410" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -15467,10 +15398,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="F411" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15496,10 +15427,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="F412" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="G412" t="n">
         <v>4</v>
@@ -15525,10 +15456,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="F413" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="G413" t="n">
         <v>4</v>
@@ -15554,10 +15485,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F414" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="G414" t="n">
         <v>4</v>
@@ -15583,10 +15514,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="F415" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="G415" t="n">
         <v>4</v>
@@ -15612,10 +15543,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="F416" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15641,10 +15572,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="F417" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="G417" t="n">
         <v>2</v>
@@ -15670,10 +15601,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="F418" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -15699,10 +15630,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
       <c r="F419" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15728,10 +15659,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="F420" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15757,10 +15688,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="F421" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -15786,10 +15717,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="F422" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -15815,10 +15746,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="F423" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15844,10 +15775,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="F424" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="G424" t="n">
         <v>3</v>
@@ -15873,10 +15804,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="F425" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15902,10 +15833,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="F426" t="s">
-        <v>826</v>
+        <v>453</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15931,10 +15862,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="F427" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -15960,10 +15891,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="F428" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15989,10 +15920,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="F429" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="G429" t="n">
         <v>4</v>
@@ -16018,10 +15949,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="F430" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16047,10 +15978,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="F431" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="G431" t="n">
         <v>2</v>
@@ -16076,10 +16007,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="F432" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="G432" t="n">
         <v>3</v>
@@ -16105,10 +16036,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="F433" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="G433" t="n">
         <v>4</v>
@@ -16134,10 +16065,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="F434" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -16163,10 +16094,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="F435" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -16192,10 +16123,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="F436" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="G436" t="n">
         <v>4</v>
@@ -16221,10 +16152,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="F437" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="G437" t="n">
         <v>3</v>
@@ -16250,10 +16181,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="F438" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16279,10 +16210,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="F439" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -16308,10 +16239,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="F440" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -16337,10 +16268,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="F441" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="G441" t="n">
         <v>4</v>
@@ -16366,10 +16297,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="F442" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="G442" t="n">
         <v>5</v>
@@ -16395,10 +16326,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="F443" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="G443" t="n">
         <v>3</v>
@@ -16424,10 +16355,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="F444" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16453,10 +16384,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="F445" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16482,10 +16413,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="F446" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16511,10 +16442,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="F447" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16540,10 +16471,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="F448" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16569,10 +16500,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="F449" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16598,10 +16529,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="F450" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16627,10 +16558,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="F451" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16656,10 +16587,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="F452" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16685,10 +16616,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="F453" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16714,10 +16645,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="F454" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16743,10 +16674,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="F455" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16772,10 +16703,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="F456" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16801,10 +16732,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="F457" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="G457" t="n">
         <v>2</v>
@@ -16830,10 +16761,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="F458" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="G458" t="n">
         <v>2</v>
@@ -16859,10 +16790,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="F459" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16888,10 +16819,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="F460" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16917,10 +16848,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="F461" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16946,10 +16877,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="F462" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16975,10 +16906,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="F463" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="G463" t="n">
         <v>3</v>
@@ -17004,10 +16935,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="F464" t="s">
-        <v>902</v>
+        <v>774</v>
       </c>
       <c r="G464" t="n">
         <v>2</v>
@@ -17033,10 +16964,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="F465" t="s">
-        <v>904</v>
+        <v>818</v>
       </c>
       <c r="G465" t="n">
         <v>3</v>
@@ -17062,10 +16993,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="F466" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="G466" t="n">
         <v>2</v>
@@ -17091,10 +17022,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
       <c r="F467" t="s">
-        <v>908</v>
+        <v>889</v>
       </c>
       <c r="G467" t="n">
         <v>3</v>
@@ -17120,10 +17051,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="F468" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="G468" t="n">
         <v>3</v>
@@ -17149,10 +17080,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="F469" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="G469" t="n">
         <v>6</v>
@@ -17178,10 +17109,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="F470" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17207,10 +17138,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="F471" t="s">
-        <v>914</v>
+        <v>125</v>
       </c>
       <c r="G471" t="n">
         <v>7</v>
@@ -17236,10 +17167,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="F472" t="s">
-        <v>916</v>
+        <v>779</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17265,10 +17196,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="F473" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17294,10 +17225,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="F474" t="s">
-        <v>920</v>
+        <v>860</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17323,10 +17254,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
       <c r="F475" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17352,10 +17283,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
       <c r="F476" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="G476" t="n">
         <v>3</v>
@@ -17381,10 +17312,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="F477" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17410,10 +17341,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="F478" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17439,10 +17370,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="F479" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17468,10 +17399,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="F480" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17497,10 +17428,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="F481" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17526,10 +17457,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="F482" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17555,10 +17486,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="F483" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17584,10 +17515,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="F484" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="G484" t="n">
         <v>2</v>
@@ -17613,10 +17544,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="F485" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17642,10 +17573,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="F486" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17671,10 +17602,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="F487" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17700,10 +17631,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="F488" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17729,10 +17660,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="F489" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="G489" t="n">
         <v>2</v>
@@ -17758,10 +17689,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="F490" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17787,10 +17718,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="F491" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17816,10 +17747,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="F492" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17845,10 +17776,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="F493" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17874,10 +17805,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="F494" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17903,10 +17834,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="F495" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17932,10 +17863,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="F496" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17961,10 +17892,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="F497" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17990,10 +17921,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="F498" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18019,10 +17950,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="F499" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18048,10 +17979,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="F500" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18077,10 +18008,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="F501" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18106,10 +18037,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="F502" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18135,10 +18066,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="F503" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18164,10 +18095,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="F504" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18193,10 +18124,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="F505" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18222,10 +18153,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="F506" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18251,10 +18182,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
       <c r="F507" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18280,10 +18211,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="F508" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18309,10 +18240,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="F509" t="s">
-        <v>984</v>
+        <v>836</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18338,10 +18269,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="F510" t="s">
-        <v>984</v>
+        <v>836</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18367,10 +18298,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="F511" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18396,10 +18327,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>987</v>
+        <v>964</v>
       </c>
       <c r="F512" t="s">
-        <v>988</v>
+        <v>965</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18425,10 +18356,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="F513" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18454,10 +18385,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>991</v>
+        <v>968</v>
       </c>
       <c r="F514" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18483,10 +18414,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="F515" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18512,10 +18443,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
       <c r="F516" t="s">
-        <v>996</v>
+        <v>973</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18541,10 +18472,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>997</v>
+        <v>974</v>
       </c>
       <c r="F517" t="s">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18570,10 +18501,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>999</v>
+        <v>976</v>
       </c>
       <c r="F518" t="s">
-        <v>1000</v>
+        <v>977</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18599,10 +18530,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1001</v>
+        <v>978</v>
       </c>
       <c r="F519" t="s">
-        <v>1002</v>
+        <v>979</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18628,10 +18559,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1003</v>
+        <v>980</v>
       </c>
       <c r="F520" t="s">
-        <v>1004</v>
+        <v>981</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18657,10 +18588,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1005</v>
+        <v>982</v>
       </c>
       <c r="F521" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18686,10 +18617,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
       <c r="F522" t="s">
-        <v>1008</v>
+        <v>985</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18715,10 +18646,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1009</v>
+        <v>986</v>
       </c>
       <c r="F523" t="s">
-        <v>1010</v>
+        <v>987</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18744,10 +18675,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
       <c r="F524" t="s">
-        <v>1012</v>
+        <v>989</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18773,10 +18704,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
       <c r="F525" t="s">
-        <v>1014</v>
+        <v>991</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18802,10 +18733,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
       <c r="F526" t="s">
-        <v>1016</v>
+        <v>993</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18831,10 +18762,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1017</v>
+        <v>994</v>
       </c>
       <c r="F527" t="s">
-        <v>1018</v>
+        <v>995</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18860,10 +18791,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1019</v>
+        <v>996</v>
       </c>
       <c r="F528" t="s">
-        <v>1020</v>
+        <v>997</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18889,10 +18820,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1021</v>
+        <v>998</v>
       </c>
       <c r="F529" t="s">
-        <v>1022</v>
+        <v>999</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18918,10 +18849,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="F530" t="s">
-        <v>1024</v>
+        <v>1001</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18947,10 +18878,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1025</v>
+        <v>1002</v>
       </c>
       <c r="F531" t="s">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18976,10 +18907,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
       <c r="F532" t="s">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19005,10 +18936,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="F533" t="s">
-        <v>1030</v>
+        <v>1007</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19034,10 +18965,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="F534" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19063,10 +18994,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
       <c r="F535" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19092,10 +19023,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="F536" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19121,10 +19052,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1037</v>
+        <v>1014</v>
       </c>
       <c r="F537" t="s">
-        <v>1038</v>
+        <v>1015</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19150,10 +19081,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="F538" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19179,10 +19110,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1041</v>
+        <v>1018</v>
       </c>
       <c r="F539" t="s">
-        <v>1042</v>
+        <v>1019</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19208,10 +19139,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1043</v>
+        <v>1020</v>
       </c>
       <c r="F540" t="s">
-        <v>1044</v>
+        <v>1021</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19237,10 +19168,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1045</v>
+        <v>1022</v>
       </c>
       <c r="F541" t="s">
-        <v>1046</v>
+        <v>1023</v>
       </c>
       <c r="G541" t="n">
         <v>3</v>
@@ -19266,10 +19197,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1047</v>
+        <v>1024</v>
       </c>
       <c r="F542" t="s">
-        <v>1048</v>
+        <v>1025</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19295,10 +19226,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1049</v>
+        <v>1026</v>
       </c>
       <c r="F543" t="s">
-        <v>1050</v>
+        <v>1027</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19324,10 +19255,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1051</v>
+        <v>1028</v>
       </c>
       <c r="F544" t="s">
-        <v>1052</v>
+        <v>1029</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19353,10 +19284,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1053</v>
+        <v>1030</v>
       </c>
       <c r="F545" t="s">
-        <v>1054</v>
+        <v>1031</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19382,10 +19313,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1055</v>
+        <v>1032</v>
       </c>
       <c r="F546" t="s">
-        <v>1056</v>
+        <v>1033</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19411,10 +19342,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1057</v>
+        <v>1034</v>
       </c>
       <c r="F547" t="s">
-        <v>1058</v>
+        <v>1035</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19440,10 +19371,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1059</v>
+        <v>1036</v>
       </c>
       <c r="F548" t="s">
-        <v>1060</v>
+        <v>1037</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19469,10 +19400,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
       <c r="F549" t="s">
-        <v>1062</v>
+        <v>1039</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19498,10 +19429,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
       <c r="F550" t="s">
-        <v>1064</v>
+        <v>1041</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>

--- a/xlsx/瑞典_intext.xlsx
+++ b/xlsx/瑞典_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1079">
   <si>
     <t>瑞典</t>
   </si>
@@ -29,7 +29,7 @@
     <t>瑞典国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_瑞典</t>
+    <t>体育运动_体育运动_奥林匹克运动会_瑞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%9B%BD%E5%BE%BD</t>
@@ -332,10 +332,10 @@
     <t>芬兰语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%94%E8%AE%B7%E6%B2%B3%E8%B0%B7%E8%8A%AC%E5%85%B0%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>托尔讷河谷芬兰语</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%AE%89%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>梅安语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%A7%86%E8%AF%AD</t>
@@ -2366,526 +2366,568 @@
     <t>英国</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>荷兰王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦斯登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛維尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>馬爾他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>義大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亞洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F%E6%88%90%E5%91%98%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>欧洲联盟成员国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
+  </si>
+  <si>
+    <t>比利時</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
+  </si>
+  <si>
+    <t>希臘</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
+  </si>
+  <si>
+    <t>荷蘭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E7%90%86%E4%BA%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>北歐理事會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>芬蘭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>冰島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>奥兰群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BE%85%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>法羅群島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
+  </si>
+  <si>
+    <t>格陵蘭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>地中海聯盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>突尼西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>布鲁塞尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
+  </si>
+  <si>
+    <t>盧森堡市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>伯尔尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>维也纳</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>爱尔兰共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>荷兰王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F%E6%88%90%E5%91%98%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>欧洲联盟成员国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
-  </si>
-  <si>
-    <t>比利時</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
-  </si>
-  <si>
-    <t>希臘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
-  </si>
-  <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E7%90%86%E4%BA%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>北歐理事會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>芬蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>冰島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>奥兰群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BE%85%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>法羅群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
-  </si>
-  <si>
-    <t>格陵蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>地中海聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>突尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>布鲁塞尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
-  </si>
-  <si>
-    <t>盧森堡市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>伯尔尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
@@ -3558,7 +3600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I550"/>
+  <dimension ref="A1:I555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3786,7 +3828,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -5091,7 +5133,7 @@
         <v>104</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -5120,7 +5162,7 @@
         <v>106</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -5410,7 +5452,7 @@
         <v>126</v>
       </c>
       <c r="G64" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -5642,7 +5684,7 @@
         <v>142</v>
       </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -9673,7 +9715,7 @@
         <v>404</v>
       </c>
       <c r="G211" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -9696,13 +9738,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>105</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -9725,13 +9767,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -9754,13 +9796,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -9783,13 +9825,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -9812,13 +9854,13 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -9841,13 +9883,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9870,13 +9912,13 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -9899,13 +9941,13 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9928,10 +9970,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9957,10 +9999,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9986,10 +10028,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10015,13 +10057,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -10044,13 +10086,13 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -10073,10 +10115,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10102,13 +10144,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -10131,13 +10173,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -10160,13 +10202,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -10189,13 +10231,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -10218,13 +10260,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -10247,13 +10289,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F231" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -10276,13 +10318,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -10305,13 +10347,13 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -10334,10 +10376,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10363,10 +10405,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10392,10 +10434,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10421,10 +10463,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10450,10 +10492,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10479,10 +10521,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10508,10 +10550,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10537,10 +10579,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10566,13 +10608,13 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -10595,13 +10637,13 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -10624,13 +10666,13 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -10653,13 +10695,13 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -10682,10 +10724,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10711,10 +10753,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -10740,10 +10782,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10769,13 +10811,13 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10798,13 +10840,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10827,13 +10869,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -10856,13 +10898,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -10885,10 +10927,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -10914,10 +10956,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10943,13 +10985,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -10972,13 +11014,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -11001,13 +11043,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -11030,10 +11072,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11059,13 +11101,13 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -11088,13 +11130,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G260" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -11117,13 +11159,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -11146,10 +11188,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -11175,13 +11217,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="F263" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -11204,13 +11246,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F264" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -11233,13 +11275,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F265" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G265" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -11262,10 +11304,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11291,10 +11333,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F267" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11320,10 +11362,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F268" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11349,10 +11391,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F269" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11378,10 +11420,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F270" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11407,10 +11449,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F271" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11436,10 +11478,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11465,10 +11507,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11494,10 +11536,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11523,10 +11565,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F275" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11552,10 +11594,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F276" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11581,10 +11623,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F277" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11610,10 +11652,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F278" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11639,10 +11681,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11668,10 +11710,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11697,13 +11739,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F281" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11726,13 +11768,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F282" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11755,13 +11797,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F283" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11784,13 +11826,13 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F284" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G284" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -11813,13 +11855,13 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F285" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -11842,13 +11884,13 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F286" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -11871,13 +11913,13 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F287" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11900,13 +11942,13 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F288" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G288" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11929,10 +11971,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F289" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11958,10 +12000,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F290" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11987,10 +12029,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F291" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12016,13 +12058,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F292" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -12045,13 +12087,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G293" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -12074,10 +12116,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12103,10 +12145,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F295" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12132,10 +12174,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F296" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12161,13 +12203,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F297" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12190,13 +12232,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F298" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -12219,10 +12261,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F299" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12248,10 +12290,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F300" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12277,10 +12319,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F301" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12306,13 +12348,13 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F302" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -12335,13 +12377,13 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F303" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G303" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -12364,13 +12406,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F304" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -12393,13 +12435,13 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F305" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G305" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -12422,13 +12464,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F306" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -12451,10 +12493,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F307" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12480,10 +12522,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F308" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12509,10 +12551,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F309" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12538,10 +12580,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F310" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12567,10 +12609,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F311" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12596,10 +12638,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F312" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12625,10 +12667,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F313" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12654,10 +12696,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F314" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12683,10 +12725,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F315" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12712,10 +12754,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F316" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12741,10 +12783,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F317" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12770,10 +12812,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F318" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12799,10 +12841,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F319" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12828,10 +12870,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F320" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12857,13 +12899,13 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F321" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12886,13 +12928,13 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F322" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12915,10 +12957,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12944,10 +12986,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F324" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12973,10 +13015,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F325" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13002,10 +13044,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F326" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13031,10 +13073,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F327" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13060,10 +13102,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F328" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13089,10 +13131,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F329" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13118,10 +13160,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F330" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13147,10 +13189,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F331" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13176,10 +13218,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F332" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13205,10 +13247,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F333" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13234,10 +13276,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F334" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13263,10 +13305,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13292,10 +13334,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13321,13 +13363,13 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F337" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -13350,13 +13392,13 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F338" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G338" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -13379,13 +13421,13 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F339" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -13408,13 +13450,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F340" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -13437,13 +13479,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F341" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -13466,10 +13508,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F342" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13495,10 +13537,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F343" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13524,10 +13566,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F344" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13553,10 +13595,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F345" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13582,10 +13624,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F346" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13611,13 +13653,13 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F347" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -13640,13 +13682,13 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F348" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G348" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -13669,13 +13711,13 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F349" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13698,10 +13740,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F350" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13727,10 +13769,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F351" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13756,10 +13798,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F352" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13785,10 +13827,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F353" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13814,13 +13856,13 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F354" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13843,13 +13885,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F355" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G355" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13872,13 +13914,13 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F356" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -13901,13 +13943,13 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F357" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13930,10 +13972,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F358" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13959,10 +14001,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F359" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13988,10 +14030,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F360" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14017,10 +14059,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F361" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14046,10 +14088,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F362" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14075,10 +14117,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F363" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14104,10 +14146,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F364" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14133,13 +14175,13 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F365" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G365" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -14162,13 +14204,13 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F366" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G366" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -14191,10 +14233,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F367" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14220,10 +14262,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F368" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14249,10 +14291,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F369" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14278,10 +14320,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F370" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14307,10 +14349,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F371" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14336,10 +14378,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F372" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14365,10 +14407,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F373" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14394,10 +14436,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F374" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14423,10 +14465,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F375" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14452,10 +14494,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F376" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14481,10 +14523,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F377" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14510,10 +14552,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F378" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14539,10 +14581,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F379" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14568,10 +14610,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F380" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14597,10 +14639,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F381" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14626,10 +14668,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F382" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14655,10 +14697,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F383" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14684,10 +14726,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F384" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14713,10 +14755,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F385" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14742,10 +14784,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F386" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14771,10 +14813,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F387" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14800,10 +14842,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F388" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14829,10 +14871,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="F389" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14858,13 +14900,13 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F390" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G390" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -14887,13 +14929,13 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F391" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G391" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -14916,10 +14958,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F392" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14945,10 +14987,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>761</v>
+        <v>129</v>
       </c>
       <c r="F393" t="s">
-        <v>762</v>
+        <v>130</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14974,13 +15016,13 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>129</v>
+        <v>763</v>
       </c>
       <c r="F394" t="s">
-        <v>130</v>
+        <v>764</v>
       </c>
       <c r="G394" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -15003,13 +15045,13 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F395" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G395" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -15032,10 +15074,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F396" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -15061,13 +15103,13 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F397" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G397" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -15090,10 +15132,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F398" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G398" t="n">
         <v>3</v>
@@ -15119,13 +15161,13 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F399" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G399" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -15148,13 +15190,13 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F400" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G400" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -15177,13 +15219,13 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F401" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G401" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -15206,13 +15248,13 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F402" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G402" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H402" t="s">
         <v>4</v>
@@ -15235,13 +15277,13 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F403" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -15264,13 +15306,13 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F404" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -15293,13 +15335,13 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F405" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G405" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H405" t="s">
         <v>4</v>
@@ -15322,10 +15364,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="F406" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15351,13 +15393,13 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F407" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
@@ -15380,10 +15422,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F408" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G408" t="n">
         <v>4</v>
@@ -15409,13 +15451,13 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F409" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G409" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -15438,10 +15480,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F410" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -15467,13 +15509,13 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F411" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G411" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H411" t="s">
         <v>4</v>
@@ -15496,13 +15538,13 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F412" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G412" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H412" t="s">
         <v>4</v>
@@ -15525,13 +15567,13 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F413" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G413" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -15554,13 +15596,13 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F414" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G414" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H414" t="s">
         <v>4</v>
@@ -15583,10 +15625,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F415" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G415" t="n">
         <v>4</v>
@@ -15612,13 +15654,13 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F416" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G416" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
@@ -15641,13 +15683,13 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F417" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G417" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
@@ -15670,13 +15712,13 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F418" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G418" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
@@ -15699,13 +15741,13 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F419" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -15728,10 +15770,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F420" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15757,10 +15799,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F421" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -15786,13 +15828,13 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F422" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -15815,10 +15857,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F423" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15844,13 +15886,13 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F424" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -15873,13 +15915,13 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F425" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -15902,10 +15944,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F426" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15931,13 +15973,13 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="F427" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -15960,13 +16002,13 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F428" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -15989,13 +16031,13 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F429" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G429" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
@@ -16018,13 +16060,13 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F430" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -16047,10 +16089,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F431" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G431" t="n">
         <v>2</v>
@@ -16076,13 +16118,13 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F432" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G432" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -16105,10 +16147,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F433" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G433" t="n">
         <v>4</v>
@@ -16134,13 +16176,13 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F434" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H434" t="s">
         <v>4</v>
@@ -16163,10 +16205,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F435" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -16192,13 +16234,13 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F436" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G436" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -16221,13 +16263,13 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F437" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G437" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H437" t="s">
         <v>4</v>
@@ -16250,13 +16292,13 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F438" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H438" t="s">
         <v>4</v>
@@ -16279,10 +16321,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F439" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -16308,13 +16350,13 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F440" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G440" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -16337,13 +16379,13 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F441" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G441" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -16366,13 +16408,13 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F442" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G442" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -16395,13 +16437,13 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F443" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G443" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H443" t="s">
         <v>4</v>
@@ -16424,13 +16466,13 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F444" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H444" t="s">
         <v>4</v>
@@ -16453,13 +16495,13 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F445" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G445" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H445" t="s">
         <v>4</v>
@@ -16482,13 +16524,13 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F446" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G446" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H446" t="s">
         <v>4</v>
@@ -16511,13 +16553,13 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F447" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G447" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H447" t="s">
         <v>4</v>
@@ -16540,10 +16582,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F448" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16569,10 +16611,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F449" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16598,10 +16640,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F450" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16627,10 +16669,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F451" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16656,10 +16698,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F452" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16685,10 +16727,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F453" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16714,10 +16756,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="F454" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16743,10 +16785,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="F455" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16772,10 +16814,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F456" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16801,13 +16843,13 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F457" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -16830,13 +16872,13 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F458" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -16859,10 +16901,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F459" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16888,10 +16930,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F460" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16917,10 +16959,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F461" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16946,13 +16988,13 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F462" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H462" t="s">
         <v>4</v>
@@ -16975,13 +17017,13 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F463" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H463" t="s">
         <v>4</v>
@@ -17004,13 +17046,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F464" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -17033,13 +17075,13 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F465" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G465" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H465" t="s">
         <v>4</v>
@@ -17062,13 +17104,13 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F466" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="G466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H466" t="s">
         <v>4</v>
@@ -17091,13 +17133,13 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F467" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G467" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H467" t="s">
         <v>4</v>
@@ -17120,10 +17162,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F468" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="G468" t="n">
         <v>3</v>
@@ -17149,13 +17191,13 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>781</v>
+        <v>913</v>
       </c>
       <c r="F469" t="s">
-        <v>782</v>
+        <v>914</v>
       </c>
       <c r="G469" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H469" t="s">
         <v>4</v>
@@ -17178,13 +17220,13 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="F470" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="G470" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -17207,13 +17249,13 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="F471" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="G471" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H471" t="s">
         <v>4</v>
@@ -17236,13 +17278,13 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="F472" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="G472" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -17265,13 +17307,13 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="F473" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="G473" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H473" t="s">
         <v>4</v>
@@ -17294,13 +17336,13 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>919</v>
+        <v>781</v>
       </c>
       <c r="F474" t="s">
-        <v>920</v>
+        <v>782</v>
       </c>
       <c r="G474" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H474" t="s">
         <v>4</v>
@@ -17323,10 +17365,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="F475" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17352,13 +17394,13 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F476" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G476" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -17381,10 +17423,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F477" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17410,10 +17452,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F478" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17439,10 +17481,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F479" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17468,10 +17510,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F480" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17497,13 +17539,13 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F481" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G481" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H481" t="s">
         <v>4</v>
@@ -17526,10 +17568,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F482" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17555,10 +17597,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F483" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17584,13 +17626,13 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>829</v>
+        <v>941</v>
       </c>
       <c r="F484" t="s">
-        <v>830</v>
+        <v>942</v>
       </c>
       <c r="G484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H484" t="s">
         <v>4</v>
@@ -17613,10 +17655,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>827</v>
+        <v>943</v>
       </c>
       <c r="F485" t="s">
-        <v>828</v>
+        <v>944</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17642,10 +17684,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="F486" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17671,10 +17713,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="F487" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17700,10 +17742,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="F488" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17729,10 +17771,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>945</v>
+        <v>839</v>
       </c>
       <c r="F489" t="s">
-        <v>946</v>
+        <v>840</v>
       </c>
       <c r="G489" t="n">
         <v>2</v>
@@ -17758,10 +17800,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>947</v>
+        <v>837</v>
       </c>
       <c r="F490" t="s">
-        <v>948</v>
+        <v>838</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17787,10 +17829,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F491" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17816,10 +17858,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F492" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17845,10 +17887,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F493" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17874,13 +17916,13 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F494" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="G494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -17903,10 +17945,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>783</v>
+        <v>959</v>
       </c>
       <c r="F495" t="s">
-        <v>784</v>
+        <v>960</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17932,10 +17974,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="F496" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17961,10 +18003,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="F497" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17990,10 +18032,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="F498" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18019,10 +18061,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="F499" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18048,10 +18090,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="F500" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18077,10 +18119,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="F501" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18106,10 +18148,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="F502" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18135,10 +18177,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="F503" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18164,13 +18206,13 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="F504" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="G504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H504" t="s">
         <v>4</v>
@@ -18193,10 +18235,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="F505" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18222,10 +18264,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="F506" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18251,10 +18293,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="F507" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18280,10 +18322,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="F508" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18309,13 +18351,13 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="F509" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="G509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -18338,10 +18380,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="F510" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18367,10 +18409,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="F511" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18396,10 +18438,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="F512" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18425,10 +18467,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="F513" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18454,10 +18496,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="F514" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18483,10 +18525,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="F515" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18512,10 +18554,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="F516" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18541,10 +18583,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="F517" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18570,10 +18612,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="F518" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18599,10 +18641,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="F519" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18628,10 +18670,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="F520" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18657,10 +18699,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="F521" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18686,10 +18728,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="F522" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18715,10 +18757,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F523" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18744,10 +18786,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="F524" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18773,10 +18815,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="F525" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18802,10 +18844,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="F526" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18831,10 +18873,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="F527" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18860,10 +18902,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="F528" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18889,10 +18931,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="F529" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18918,10 +18960,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="F530" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18947,10 +18989,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="F531" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18976,10 +19018,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="F532" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19005,10 +19047,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="F533" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19034,10 +19076,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="F534" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19063,10 +19105,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="F535" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19092,10 +19134,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="F536" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19121,10 +19163,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="F537" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19150,10 +19192,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="F538" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19179,10 +19221,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="F539" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19208,10 +19250,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="F540" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19237,13 +19279,13 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="F541" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="G541" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H541" t="s">
         <v>4</v>
@@ -19266,10 +19308,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="F542" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19295,10 +19337,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="F543" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19324,10 +19366,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="F544" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19353,10 +19395,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F545" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19382,13 +19424,13 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="F546" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="G546" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H546" t="s">
         <v>4</v>
@@ -19411,10 +19453,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="F547" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19440,10 +19482,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="F548" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19469,10 +19511,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="F549" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19498,10 +19540,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="F550" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19510,6 +19552,151 @@
         <v>4</v>
       </c>
       <c r="I550" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>0</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1</v>
+      </c>
+      <c r="D551" t="n">
+        <v>550</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G551" t="n">
+        <v>1</v>
+      </c>
+      <c r="H551" t="s">
+        <v>4</v>
+      </c>
+      <c r="I551" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>0</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1</v>
+      </c>
+      <c r="D552" t="n">
+        <v>551</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G552" t="n">
+        <v>1</v>
+      </c>
+      <c r="H552" t="s">
+        <v>4</v>
+      </c>
+      <c r="I552" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1</v>
+      </c>
+      <c r="D553" t="n">
+        <v>552</v>
+      </c>
+      <c r="E553" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G553" t="n">
+        <v>1</v>
+      </c>
+      <c r="H553" t="s">
+        <v>4</v>
+      </c>
+      <c r="I553" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>0</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1</v>
+      </c>
+      <c r="D554" t="n">
+        <v>553</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G554" t="n">
+        <v>1</v>
+      </c>
+      <c r="H554" t="s">
+        <v>4</v>
+      </c>
+      <c r="I554" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
+        <v>0</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1</v>
+      </c>
+      <c r="D555" t="n">
+        <v>554</v>
+      </c>
+      <c r="E555" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G555" t="n">
+        <v>1</v>
+      </c>
+      <c r="H555" t="s">
+        <v>4</v>
+      </c>
+      <c r="I555" t="n">
         <v>3</v>
       </c>
     </row>
